--- a/GraphDB/result.xlsx
+++ b/GraphDB/result.xlsx
@@ -22,10 +22,10 @@
     <x:t>Ожидаемый критерий</x:t>
   </x:si>
   <x:si>
-    <x:t>Время выполнения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Баланс</x:t>
+    <x:t>Время выполнения (секунды)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Баланс разбиения</x:t>
   </x:si>
   <x:si>
     <x:t>Найденный критерий</x:t>
@@ -37,22 +37,22 @@
     <x:t>0,01s</x:t>
   </x:si>
   <x:si>
-    <x:t>0,22s</x:t>
+    <x:t>0,23s</x:t>
   </x:si>
   <x:si>
     <x:t>0,2s</x:t>
   </x:si>
   <x:si>
-    <x:t>28,3s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>28,95s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>291,42s</x:t>
-  </x:si>
-  <x:si>
-    <x:t>292,08s</x:t>
+    <x:t>27,85s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>29,41s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>282,39s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>281,96s</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -411,8 +411,8 @@
   <x:cols>
     <x:col min="1" max="1" width="13.710625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="21.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="19.139196" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="7.424911" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="28.853482" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="17.996339" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="21.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>

--- a/GraphDB/result.xlsx
+++ b/GraphDB/result.xlsx
@@ -1,97 +1,199 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook"/>
-  <x:bookViews>
-    <x:workbookView firstSheet="0" activeTab="0"/>
-  </x:bookViews>
-  <x:sheets>
-    <x:sheet name="Результаты" sheetId="1" r:id="rId2"/>
-  </x:sheets>
-  <x:definedNames/>
-  <x:calcPr calcId="125725"/>
-</x:workbook>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arsen\source\repos\GraphPartition\GraphDB\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2104ED5-9C15-4F2A-9AF0-732C68F4050D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Результаты" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="0"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Размер графа</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ожидаемый критерий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Время выполнения (секунды)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Баланс разбиения</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Найденный критерий</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,03s</x:t>
-  </x:si>
-</x:sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Размер графа</t>
+  </si>
+  <si>
+    <t>Ожидаемое значение критерия</t>
+  </si>
+  <si>
+    <t>Время выполнения (секунды)</t>
+  </si>
+  <si>
+    <t>Баланс разбиения</t>
+  </si>
+  <si>
+    <t>Найденное значение критерия</t>
+  </si>
+  <si>
+    <t>Отклонение значения критерия в %</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:numFmts count="1">
-    <x:numFmt numFmtId="0" formatCode=""/>
-  </x:numFmts>
-  <x:fonts count="1">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
-  </x:fonts>
-  <x:fills count="2">
-    <x:fill>
-      <x:patternFill patternType="none"/>
-    </x:fill>
-    <x:fill>
-      <x:patternFill patternType="gray125"/>
-    </x:fill>
-  </x:fills>
-  <x:borders count="1">
-    <x:border diagonalUp="0" diagonalDown="0">
-      <x:left style="none">
-        <x:color rgb="FF000000"/>
-      </x:left>
-      <x:right style="none">
-        <x:color rgb="FF000000"/>
-      </x:right>
-      <x:top style="none">
-        <x:color rgb="FF000000"/>
-      </x:top>
-      <x:bottom style="none">
-        <x:color rgb="FF000000"/>
-      </x:bottom>
-      <x:diagonal style="none">
-        <x:color rgb="FF000000"/>
-      </x:diagonal>
-    </x:border>
-  </x:borders>
-  <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellStyleXfs>
-  <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-  </x:cellXfs>
-  <x:cellStyles count="1">
-    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </x:cellStyles>
-</x:styleSheet>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+  </cellStyleXfs>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,62 +480,929 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:E2"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="1" width="13.710625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="21.996339" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="28.853482" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="17.996339" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="21.282054" style="0" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="E1" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0">
-        <x:v>1000</x:v>
-      </x:c>
-      <x:c r="B2" s="0">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>0.5</x:v>
-      </x:c>
-      <x:c r="E2" s="0">
-        <x:v>2</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>200</v>
+      </c>
+      <c r="B2" s="3">
+        <v>44</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4">
+        <v>36.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>200</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7">
+        <v>48.78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>200</v>
+      </c>
+      <c r="B4" s="6">
+        <v>43</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.43</v>
+      </c>
+      <c r="E4" s="6">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7">
+        <v>51.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>200</v>
+      </c>
+      <c r="B5" s="6">
+        <v>41</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>25</v>
+      </c>
+      <c r="F5" s="7">
+        <v>60.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>200</v>
+      </c>
+      <c r="B6" s="6">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.185</v>
+      </c>
+      <c r="E6" s="6">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>200</v>
+      </c>
+      <c r="B7" s="6">
+        <v>44</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>37</v>
+      </c>
+      <c r="F7" s="7">
+        <v>84.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>200</v>
+      </c>
+      <c r="B8" s="6">
+        <v>42</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>36</v>
+      </c>
+      <c r="F8" s="7">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>200</v>
+      </c>
+      <c r="B9" s="6">
+        <v>42</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="6">
+        <v>37</v>
+      </c>
+      <c r="F9" s="7">
+        <v>88.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>200</v>
+      </c>
+      <c r="B10" s="6">
+        <v>43</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="E10" s="6">
+        <v>41</v>
+      </c>
+      <c r="F10" s="7">
+        <v>95.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <v>200</v>
+      </c>
+      <c r="B11" s="9">
+        <v>40</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="6">
+        <v>43</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>48</v>
+      </c>
+      <c r="F13" s="7">
+        <v>111.63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="6">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>56</v>
+      </c>
+      <c r="F14" s="7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="6">
+        <v>41</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>58</v>
+      </c>
+      <c r="F15" s="7">
+        <v>141.46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="6">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>64</v>
+      </c>
+      <c r="F16" s="7">
+        <v>145.44999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="6">
+        <v>43</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7">
+        <v>148.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="6">
+        <v>44</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="6">
+        <v>68</v>
+      </c>
+      <c r="F18" s="7">
+        <v>154.55000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="6">
+        <v>40</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E19" s="6">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="6">
+        <v>42</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="6">
+        <v>79</v>
+      </c>
+      <c r="F20" s="7">
+        <v>188.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="9">
+        <v>42</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="9">
+        <v>84</v>
+      </c>
+      <c r="F21" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20000</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
+        <v>18.11</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>40</v>
+      </c>
+      <c r="F22" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B23" s="6">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6">
+        <v>19.66</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="6">
+        <v>40</v>
+      </c>
+      <c r="F23" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B24" s="6">
+        <v>41</v>
+      </c>
+      <c r="C24" s="6">
+        <v>19.12</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>41</v>
+      </c>
+      <c r="F24" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B25" s="6">
+        <v>43</v>
+      </c>
+      <c r="C25" s="6">
+        <v>17.079999999999998</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E25" s="6">
+        <v>43</v>
+      </c>
+      <c r="F25" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B26" s="6">
+        <v>43</v>
+      </c>
+      <c r="C26" s="6">
+        <v>18.84</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="6">
+        <v>43</v>
+      </c>
+      <c r="F26" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B27" s="6">
+        <v>42</v>
+      </c>
+      <c r="C27" s="6">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="6">
+        <v>55</v>
+      </c>
+      <c r="F27" s="7">
+        <v>130.94999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B28" s="6">
+        <v>44</v>
+      </c>
+      <c r="C28" s="6">
+        <v>21.76</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E28" s="6">
+        <v>108</v>
+      </c>
+      <c r="F28" s="7">
+        <v>245.45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B29" s="6">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6">
+        <v>20.57</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="6">
+        <v>128</v>
+      </c>
+      <c r="F29" s="7">
+        <v>312.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>20000</v>
+      </c>
+      <c r="B30" s="6">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6">
+        <v>20.38</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="6">
+        <v>211</v>
+      </c>
+      <c r="F30" s="7">
+        <v>502.38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
+        <v>20000</v>
+      </c>
+      <c r="B31" s="9">
+        <v>44</v>
+      </c>
+      <c r="C31" s="9">
+        <v>15.22</v>
+      </c>
+      <c r="D31" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E31" s="9">
+        <v>349</v>
+      </c>
+      <c r="F31" s="10">
+        <v>793.18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B32" s="6">
+        <v>40</v>
+      </c>
+      <c r="C32" s="6">
+        <v>55.72</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>40</v>
+      </c>
+      <c r="F32" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B33" s="6">
+        <v>42</v>
+      </c>
+      <c r="C33" s="6">
+        <v>47.06</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="6">
+        <v>42</v>
+      </c>
+      <c r="F33" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B34" s="6">
+        <v>43</v>
+      </c>
+      <c r="C34" s="6">
+        <v>59.09</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="6">
+        <v>43</v>
+      </c>
+      <c r="F34" s="7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B35" s="6">
+        <v>44</v>
+      </c>
+      <c r="C35" s="6">
+        <v>41.3</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E35" s="6">
+        <v>258</v>
+      </c>
+      <c r="F35" s="7">
+        <v>586.36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B36" s="6">
+        <v>41</v>
+      </c>
+      <c r="C36" s="6">
+        <v>53.35</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="6">
+        <v>244</v>
+      </c>
+      <c r="F36" s="7">
+        <v>595.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B37" s="6">
+        <v>43</v>
+      </c>
+      <c r="C37" s="6">
+        <v>54.34</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="6">
+        <v>292</v>
+      </c>
+      <c r="F37" s="7">
+        <v>679.07</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B38" s="6">
+        <v>40</v>
+      </c>
+      <c r="C38" s="6">
+        <v>56.51</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>292</v>
+      </c>
+      <c r="F38" s="7">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B39" s="6">
+        <v>44</v>
+      </c>
+      <c r="C39" s="6">
+        <v>57.97</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="6">
+        <v>324</v>
+      </c>
+      <c r="F39" s="7">
+        <v>736.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>30000</v>
+      </c>
+      <c r="B40" s="6">
+        <v>42</v>
+      </c>
+      <c r="C40" s="6">
+        <v>62.8</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="6">
+        <v>434</v>
+      </c>
+      <c r="F40" s="7">
+        <v>1033.33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
+        <v>30000</v>
+      </c>
+      <c r="B41" s="9">
+        <v>41</v>
+      </c>
+      <c r="C41" s="9">
+        <v>46.83</v>
+      </c>
+      <c r="D41" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="9">
+        <v>446</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1087.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F41">
+    <sortCondition ref="A2:A41"/>
+    <sortCondition ref="F2:F41"/>
+    <sortCondition ref="D2:D41"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:C11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:C41">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F41">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
 </file>